--- a/data/input V1.xlsx
+++ b/data/input V1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e436345724b3837b/1Uni/2025 S2/FIT2083/Research Project/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e436345724b3837b/1Uni/2025 S2/FIT2083/Research Project/Code/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{ADCE8A70-8587-4023-BDED-CBCD171CDF99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0264F63A-6066-4F3D-BA21-869E18E8DB31}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{ADCE8A70-8587-4023-BDED-CBCD171CDF99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0CCB532B-0E61-45B2-B111-863CFD29A047}"/>
   <bookViews>
     <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="17496" activeTab="1" xr2:uid="{1C98F18F-0A28-494C-9FEA-B07E795194F9}"/>
   </bookViews>
@@ -39,25 +39,25 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>Sunday outbound</t>
-  </si>
-  <si>
-    <t>Sunday inbound</t>
-  </si>
-  <si>
     <t>Time</t>
   </si>
   <si>
     <t>Sunday</t>
   </si>
   <si>
-    <t>Monday-Thursday average</t>
+    <t>Monday-Thursday Outbound</t>
   </si>
   <si>
-    <t>Monday-Thursday inbound</t>
+    <t>Monday-Thursday Inbound</t>
   </si>
   <si>
-    <t>Monday-Thursday Outbound</t>
+    <t>Sunday Inbound</t>
+  </si>
+  <si>
+    <t>Sunday Outbound</t>
+  </si>
+  <si>
+    <t>Monday-Thursday Average</t>
   </si>
 </sst>
 </file>
@@ -89,15 +89,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -105,15 +111,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -209,17 +228,13 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF7D0C87-5A03-4C24-86FE-E675F6B7C138}" name="Table1" displayName="Table1" ref="A1:C25" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" headerRowCellStyle="Percent" dataCellStyle="Percent">
   <autoFilter ref="A1:C25" xr:uid="{AF7D0C87-5A03-4C24-86FE-E675F6B7C138}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{D5A9237F-2AA9-48CB-98DC-24C02870FA3A}" name="Time" dataDxfId="2"/>
     <tableColumn id="8" xr3:uid="{F143B859-EC03-4DB4-A7D7-115BCD9A26A5}" name="Sunday" dataDxfId="1" dataCellStyle="Percent"/>
-    <tableColumn id="9" xr3:uid="{FE4CB120-0A3D-483A-B845-0A84472A9149}" name="Monday-Thursday average" dataDxfId="0" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{FE4CB120-0A3D-483A-B845-0A84472A9149}" name="Monday-Thursday Average" dataDxfId="0" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -545,7 +560,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -557,277 +572,277 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0.04</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.1</v>
+      <c r="A2" s="3">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.06</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>0.20833333333333334</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="B3" s="2">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="C3" s="2">
-        <v>0.2475</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="B4" s="2">
+      <c r="A4" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="B4" s="4">
         <v>0.06</v>
       </c>
-      <c r="C4" s="2">
-        <v>0.51</v>
+      <c r="C4" s="4">
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.80249999999999999</v>
+      <c r="A5" s="5">
+        <v>0.125</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="C5" s="6">
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>0.33333333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="B6" s="2">
-        <v>0.3</v>
+        <v>0.04</v>
       </c>
       <c r="C6" s="2">
-        <v>0.8899999999999999</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>0.375</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="B7" s="2">
-        <v>0.46</v>
+        <v>0.03</v>
       </c>
       <c r="C7" s="2">
-        <v>0.6875</v>
+        <v>0.2475</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>0.41666666666666669</v>
+        <v>0.25</v>
       </c>
       <c r="B8" s="2">
-        <v>0.56000000000000005</v>
+        <v>0.06</v>
       </c>
       <c r="C8" s="2">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>0.45833333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="B9" s="2">
-        <v>0.53</v>
+        <v>0.15</v>
       </c>
       <c r="C9" s="2">
-        <v>0.38500000000000001</v>
+        <v>0.80249999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="B10" s="2">
-        <v>0.44</v>
+        <v>0.3</v>
       </c>
       <c r="C10" s="2">
-        <v>0.33749999999999997</v>
+        <v>0.8899999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>0.54166666666666663</v>
+        <v>0.375</v>
       </c>
       <c r="B11" s="2">
-        <v>0.36</v>
+        <v>0.46</v>
       </c>
       <c r="C11" s="2">
-        <v>0.34249999999999997</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>0.58333333333333337</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="B12" s="2">
-        <v>0.32</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="C12" s="2">
-        <v>0.39249999999999996</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>0.625</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="B13" s="2">
-        <v>0.31</v>
+        <v>0.53</v>
       </c>
       <c r="C13" s="2">
-        <v>0.50750000000000006</v>
+        <v>0.38500000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="B14" s="2">
-        <v>0.34</v>
+        <v>0.44</v>
       </c>
       <c r="C14" s="2">
-        <v>0.65249999999999997</v>
+        <v>0.33749999999999997</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>0.70833333333333337</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="B15" s="2">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
       <c r="C15" s="2">
-        <v>0.71750000000000003</v>
+        <v>0.34249999999999997</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>0.75</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="B16" s="2">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="C16" s="2">
-        <v>0.60750000000000004</v>
+        <v>0.39249999999999996</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>0.79166666666666674</v>
+        <v>0.625</v>
       </c>
       <c r="B17" s="2">
-        <v>0.26</v>
+        <v>0.31</v>
       </c>
       <c r="C17" s="2">
-        <v>0.40499999999999997</v>
+        <v>0.50750000000000006</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>0.83333333333333326</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="B18" s="2">
-        <v>0.21</v>
+        <v>0.34</v>
       </c>
       <c r="C18" s="2">
-        <v>0.26750000000000002</v>
+        <v>0.65249999999999997</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>0.875</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="B19" s="2">
-        <v>0.18</v>
+        <v>0.34</v>
       </c>
       <c r="C19" s="2">
-        <v>0.20499999999999999</v>
+        <v>0.71750000000000003</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>0.91666666666666674</v>
+        <v>0.75</v>
       </c>
       <c r="B20" s="2">
-        <v>0.15</v>
+        <v>0.31</v>
       </c>
       <c r="C20" s="2">
-        <v>0.16</v>
+        <v>0.60750000000000004</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>0.95833333333333326</v>
+        <v>0.79166666666666674</v>
       </c>
       <c r="B21" s="2">
-        <v>0.1</v>
+        <v>0.26</v>
       </c>
       <c r="C21" s="2">
-        <v>0.11749999999999999</v>
+        <v>0.40499999999999997</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>0</v>
+        <v>0.83333333333333326</v>
       </c>
       <c r="B22" s="2">
-        <v>0.06</v>
+        <v>0.21</v>
       </c>
       <c r="C22" s="2">
-        <v>0.06</v>
+        <v>0.26750000000000002</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>4.1666666666666664E-2</v>
+        <v>0.875</v>
       </c>
       <c r="B23" s="2">
-        <v>0.06</v>
+        <v>0.18</v>
       </c>
       <c r="C23" s="2">
-        <v>0.04</v>
+        <v>0.20499999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>8.3333333333333329E-2</v>
+        <v>0.91666666666666674</v>
       </c>
       <c r="B24" s="2">
-        <v>0.06</v>
+        <v>0.15</v>
       </c>
       <c r="C24" s="2">
-        <v>3.5000000000000003E-2</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>0.125</v>
+        <v>0.95833333333333326</v>
       </c>
       <c r="B25" s="2">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="C25" s="2">
-        <v>5.5E-2</v>
+        <v>0.11749999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -847,7 +862,7 @@
   <dimension ref="A1:D75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -860,16 +875,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">

--- a/data/input V1.xlsx
+++ b/data/input V1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e436345724b3837b/1Uni/2025 S2/FIT2083/Research Project/Code/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{ADCE8A70-8587-4023-BDED-CBCD171CDF99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0CCB532B-0E61-45B2-B111-863CFD29A047}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="8_{ADCE8A70-8587-4023-BDED-CBCD171CDF99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8570F4A-DA80-4634-8619-400F3CD3CA72}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="17496" activeTab="1" xr2:uid="{1C98F18F-0A28-494C-9FEA-B07E795194F9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{1C98F18F-0A28-494C-9FEA-B07E795194F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -37,12 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Time</t>
-  </si>
-  <si>
-    <t>Sunday</t>
   </si>
   <si>
     <t>Monday-Thursday Outbound</t>
@@ -57,7 +54,16 @@
     <t>Sunday Outbound</t>
   </si>
   <si>
+    <t>Sunday Raw</t>
+  </si>
+  <si>
+    <t>Monday-Thursday Raw</t>
+  </si>
+  <si>
     <t>Monday-Thursday Average</t>
+  </si>
+  <si>
+    <t>Sunday</t>
   </si>
 </sst>
 </file>
@@ -125,7 +131,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -133,12 +139,50 @@
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -228,13 +272,23 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF7D0C87-5A03-4C24-86FE-E675F6B7C138}" name="Table1" displayName="Table1" ref="A1:C25" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" headerRowCellStyle="Percent" dataCellStyle="Percent">
-  <autoFilter ref="A1:C25" xr:uid="{AF7D0C87-5A03-4C24-86FE-E675F6B7C138}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{D5A9237F-2AA9-48CB-98DC-24C02870FA3A}" name="Time" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{F143B859-EC03-4DB4-A7D7-115BCD9A26A5}" name="Sunday" dataDxfId="1" dataCellStyle="Percent"/>
-    <tableColumn id="9" xr3:uid="{FE4CB120-0A3D-483A-B845-0A84472A9149}" name="Monday-Thursday Average" dataDxfId="0" dataCellStyle="Percent"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF7D0C87-5A03-4C24-86FE-E675F6B7C138}" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E25" xr:uid="{AF7D0C87-5A03-4C24-86FE-E675F6B7C138}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{D5A9237F-2AA9-48CB-98DC-24C02870FA3A}" name="Time" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{F143B859-EC03-4DB4-A7D7-115BCD9A26A5}" name="Sunday Raw" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{FE4CB120-0A3D-483A-B845-0A84472A9149}" name="Monday-Thursday Raw" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{8C2D8C48-643E-47CA-97BD-E000562AB749}" name="Sunday" dataDxfId="1">
+      <calculatedColumnFormula>MAX(0,Table1[[#This Row],[Sunday Raw]]-0.06)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{35F2F3F5-1BE1-4A56-97D4-A6F682CC19C4}" name="Monday-Thursday Average" dataDxfId="0">
+      <calculatedColumnFormula>MAX(0,Table1[[#This Row],[Monday-Thursday Raw]]-0.06)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -557,31 +611,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B4BF7FF-2422-4404-AE48-BB835AFF6B54}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+    <col min="1" max="1" width="17.54296875" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" customWidth="1"/>
     <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -591,8 +653,16 @@
       <c r="C2" s="4">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" s="7">
+        <f>MAX(0,Table1[[#This Row],[Sunday Raw]]-0.06)</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="7">
+        <f>MAX(0,Table1[[#This Row],[Monday-Thursday Raw]]-0.06)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -602,8 +672,16 @@
       <c r="C3" s="2">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" s="7">
+        <f>MAX(0,Table1[[#This Row],[Sunday Raw]]-0.06)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="7">
+        <f>MAX(0,Table1[[#This Row],[Monday-Thursday Raw]]-0.06)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -613,8 +691,16 @@
       <c r="C4" s="4">
         <v>3.5000000000000003E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" s="7">
+        <f>MAX(0,Table1[[#This Row],[Sunday Raw]]-0.06)</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="7">
+        <f>MAX(0,Table1[[#This Row],[Monday-Thursday Raw]]-0.06)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>0.125</v>
       </c>
@@ -624,8 +710,16 @@
       <c r="C5" s="6">
         <v>5.5E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" s="7">
+        <f>MAX(0,Table1[[#This Row],[Sunday Raw]]-0.06)</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
+        <f>MAX(0,Table1[[#This Row],[Monday-Thursday Raw]]-0.06)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>0.16666666666666666</v>
       </c>
@@ -635,8 +729,16 @@
       <c r="C6" s="2">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" s="7">
+        <f>MAX(0,Table1[[#This Row],[Sunday Raw]]-0.06)</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="7">
+        <f>MAX(0,Table1[[#This Row],[Monday-Thursday Raw]]-0.06)</f>
+        <v>4.0000000000000008E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>0.20833333333333334</v>
       </c>
@@ -646,8 +748,16 @@
       <c r="C7" s="2">
         <v>0.2475</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" s="7">
+        <f>MAX(0,Table1[[#This Row],[Sunday Raw]]-0.06)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="7">
+        <f>MAX(0,Table1[[#This Row],[Monday-Thursday Raw]]-0.06)</f>
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>0.25</v>
       </c>
@@ -657,8 +767,16 @@
       <c r="C8" s="2">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" s="7">
+        <f>MAX(0,Table1[[#This Row],[Sunday Raw]]-0.06)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="7">
+        <f>MAX(0,Table1[[#This Row],[Monday-Thursday Raw]]-0.06)</f>
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>0.29166666666666669</v>
       </c>
@@ -668,8 +786,16 @@
       <c r="C9" s="2">
         <v>0.80249999999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" s="7">
+        <f>MAX(0,Table1[[#This Row],[Sunday Raw]]-0.06)</f>
+        <v>0.09</v>
+      </c>
+      <c r="E9" s="7">
+        <f>MAX(0,Table1[[#This Row],[Monday-Thursday Raw]]-0.06)</f>
+        <v>0.74249999999999994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>0.33333333333333331</v>
       </c>
@@ -679,8 +805,16 @@
       <c r="C10" s="2">
         <v>0.8899999999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" s="7">
+        <f>MAX(0,Table1[[#This Row],[Sunday Raw]]-0.06)</f>
+        <v>0.24</v>
+      </c>
+      <c r="E10" s="7">
+        <f>MAX(0,Table1[[#This Row],[Monday-Thursday Raw]]-0.06)</f>
+        <v>0.82999999999999985</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>0.375</v>
       </c>
@@ -690,8 +824,16 @@
       <c r="C11" s="2">
         <v>0.6875</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" s="7">
+        <f>MAX(0,Table1[[#This Row],[Sunday Raw]]-0.06)</f>
+        <v>0.4</v>
+      </c>
+      <c r="E11" s="7">
+        <f>MAX(0,Table1[[#This Row],[Monday-Thursday Raw]]-0.06)</f>
+        <v>0.62749999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>0.41666666666666669</v>
       </c>
@@ -701,8 +843,16 @@
       <c r="C12" s="2">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" s="7">
+        <f>MAX(0,Table1[[#This Row],[Sunday Raw]]-0.06)</f>
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="7">
+        <f>MAX(0,Table1[[#This Row],[Monday-Thursday Raw]]-0.06)</f>
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>0.45833333333333331</v>
       </c>
@@ -712,8 +862,16 @@
       <c r="C13" s="2">
         <v>0.38500000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" s="7">
+        <f>MAX(0,Table1[[#This Row],[Sunday Raw]]-0.06)</f>
+        <v>0.47000000000000003</v>
+      </c>
+      <c r="E13" s="7">
+        <f>MAX(0,Table1[[#This Row],[Monday-Thursday Raw]]-0.06)</f>
+        <v>0.32500000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>0.5</v>
       </c>
@@ -723,8 +881,16 @@
       <c r="C14" s="2">
         <v>0.33749999999999997</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" s="7">
+        <f>MAX(0,Table1[[#This Row],[Sunday Raw]]-0.06)</f>
+        <v>0.38</v>
+      </c>
+      <c r="E14" s="7">
+        <f>MAX(0,Table1[[#This Row],[Monday-Thursday Raw]]-0.06)</f>
+        <v>0.27749999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>0.54166666666666663</v>
       </c>
@@ -734,8 +900,16 @@
       <c r="C15" s="2">
         <v>0.34249999999999997</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" s="7">
+        <f>MAX(0,Table1[[#This Row],[Sunday Raw]]-0.06)</f>
+        <v>0.3</v>
+      </c>
+      <c r="E15" s="7">
+        <f>MAX(0,Table1[[#This Row],[Monday-Thursday Raw]]-0.06)</f>
+        <v>0.28249999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>0.58333333333333337</v>
       </c>
@@ -745,8 +919,16 @@
       <c r="C16" s="2">
         <v>0.39249999999999996</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" s="7">
+        <f>MAX(0,Table1[[#This Row],[Sunday Raw]]-0.06)</f>
+        <v>0.26</v>
+      </c>
+      <c r="E16" s="7">
+        <f>MAX(0,Table1[[#This Row],[Monday-Thursday Raw]]-0.06)</f>
+        <v>0.33249999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>0.625</v>
       </c>
@@ -756,8 +938,16 @@
       <c r="C17" s="2">
         <v>0.50750000000000006</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" s="7">
+        <f>MAX(0,Table1[[#This Row],[Sunday Raw]]-0.06)</f>
+        <v>0.25</v>
+      </c>
+      <c r="E17" s="7">
+        <f>MAX(0,Table1[[#This Row],[Monday-Thursday Raw]]-0.06)</f>
+        <v>0.44750000000000006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>0.66666666666666663</v>
       </c>
@@ -767,8 +957,16 @@
       <c r="C18" s="2">
         <v>0.65249999999999997</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" s="7">
+        <f>MAX(0,Table1[[#This Row],[Sunday Raw]]-0.06)</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E18" s="7">
+        <f>MAX(0,Table1[[#This Row],[Monday-Thursday Raw]]-0.06)</f>
+        <v>0.59250000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>0.70833333333333337</v>
       </c>
@@ -778,8 +976,16 @@
       <c r="C19" s="2">
         <v>0.71750000000000003</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" s="7">
+        <f>MAX(0,Table1[[#This Row],[Sunday Raw]]-0.06)</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E19" s="7">
+        <f>MAX(0,Table1[[#This Row],[Monday-Thursday Raw]]-0.06)</f>
+        <v>0.65749999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>0.75</v>
       </c>
@@ -789,8 +995,16 @@
       <c r="C20" s="2">
         <v>0.60750000000000004</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" s="7">
+        <f>MAX(0,Table1[[#This Row],[Sunday Raw]]-0.06)</f>
+        <v>0.25</v>
+      </c>
+      <c r="E20" s="7">
+        <f>MAX(0,Table1[[#This Row],[Monday-Thursday Raw]]-0.06)</f>
+        <v>0.5475000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>0.79166666666666674</v>
       </c>
@@ -800,8 +1014,16 @@
       <c r="C21" s="2">
         <v>0.40499999999999997</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" s="7">
+        <f>MAX(0,Table1[[#This Row],[Sunday Raw]]-0.06)</f>
+        <v>0.2</v>
+      </c>
+      <c r="E21" s="7">
+        <f>MAX(0,Table1[[#This Row],[Monday-Thursday Raw]]-0.06)</f>
+        <v>0.34499999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>0.83333333333333326</v>
       </c>
@@ -811,8 +1033,16 @@
       <c r="C22" s="2">
         <v>0.26750000000000002</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" s="7">
+        <f>MAX(0,Table1[[#This Row],[Sunday Raw]]-0.06)</f>
+        <v>0.15</v>
+      </c>
+      <c r="E22" s="7">
+        <f>MAX(0,Table1[[#This Row],[Monday-Thursday Raw]]-0.06)</f>
+        <v>0.20750000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>0.875</v>
       </c>
@@ -822,8 +1052,16 @@
       <c r="C23" s="2">
         <v>0.20499999999999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" s="7">
+        <f>MAX(0,Table1[[#This Row],[Sunday Raw]]-0.06)</f>
+        <v>0.12</v>
+      </c>
+      <c r="E23" s="7">
+        <f>MAX(0,Table1[[#This Row],[Monday-Thursday Raw]]-0.06)</f>
+        <v>0.14499999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>0.91666666666666674</v>
       </c>
@@ -833,8 +1071,16 @@
       <c r="C24" s="2">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" s="7">
+        <f>MAX(0,Table1[[#This Row],[Sunday Raw]]-0.06)</f>
+        <v>0.09</v>
+      </c>
+      <c r="E24" s="7">
+        <f>MAX(0,Table1[[#This Row],[Monday-Thursday Raw]]-0.06)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>0.95833333333333326</v>
       </c>
@@ -844,8 +1090,16 @@
       <c r="C25" s="2">
         <v>0.11749999999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" s="7">
+        <f>MAX(0,Table1[[#This Row],[Sunday Raw]]-0.06)</f>
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="E25" s="7">
+        <f>MAX(0,Table1[[#This Row],[Monday-Thursday Raw]]-0.06)</f>
+        <v>5.7499999999999996E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
     </row>
   </sheetData>
@@ -861,33 +1115,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B633DBAA-653E-43AE-8ED7-66C8556EA462}">
   <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.36328125" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0.22638888888888889</v>
       </c>
@@ -901,7 +1155,7 @@
         <v>0.15694444444444444</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>0.24027777777777778</v>
       </c>
@@ -916,7 +1170,7 @@
         <v>0.1986111111111111</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>0.25416666666666665</v>
       </c>
@@ -931,7 +1185,7 @@
         <v>0.24027777777777776</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>0.26805555555555555</v>
       </c>
@@ -946,7 +1200,7 @@
         <v>0.28194444444444444</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>0.28194444444444444</v>
       </c>
@@ -960,7 +1214,7 @@
         <v>0.31041666666666667</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>0.29652777777777778</v>
       </c>
@@ -974,7 +1228,7 @@
         <v>0.33819444444444446</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>0.29930555555555555</v>
       </c>
@@ -988,7 +1242,7 @@
         <v>0.36597222222222198</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>0.30833333333333335</v>
       </c>
@@ -1002,7 +1256,7 @@
         <v>0.39374999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>0.31111111111111112</v>
       </c>
@@ -1016,7 +1270,7 @@
         <v>0.421527777777778</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>0.31458333333333333</v>
       </c>
@@ -1030,7 +1284,7 @@
         <v>0.43541666666666667</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>0.32291666666666669</v>
       </c>
@@ -1044,7 +1298,7 @@
         <v>0.44930555555555501</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>0.32569444444444445</v>
       </c>
@@ -1058,7 +1312,7 @@
         <v>0.46319444444444402</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>0.33263888888888887</v>
       </c>
@@ -1072,7 +1326,7 @@
         <v>0.47708333333333303</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>0.33888888888888891</v>
       </c>
@@ -1086,7 +1340,7 @@
         <v>0.49097222222222098</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>0.34513888888888888</v>
       </c>
@@ -1100,7 +1354,7 @@
         <v>0.50486111111110998</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>0.34930555555555554</v>
       </c>
@@ -1114,7 +1368,7 @@
         <v>0.51874999999999905</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>0.35555555555555557</v>
       </c>
@@ -1128,7 +1382,7 @@
         <v>0.532638888888887</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>0.36041666666666666</v>
       </c>
@@ -1142,7 +1396,7 @@
         <v>0.54652777777777595</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>0.36458333333333331</v>
       </c>
@@ -1156,7 +1410,7 @@
         <v>0.56041666666666501</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>0.37083333333333335</v>
       </c>
@@ -1170,7 +1424,7 @@
         <v>0.57430555555555296</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>0.37708333333333333</v>
       </c>
@@ -1184,7 +1438,7 @@
         <v>0.58819444444444202</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>0.38124999999999998</v>
       </c>
@@ -1198,7 +1452,7 @@
         <v>0.59791666666666665</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>0.3840277777777778</v>
       </c>
@@ -1212,7 +1466,7 @@
         <v>0.6020833333333333</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>0.38819444444444445</v>
       </c>
@@ -1226,7 +1480,7 @@
         <v>0.61597222222222225</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>0.39444444444444443</v>
       </c>
@@ -1240,7 +1494,7 @@
         <v>0.62986111111111109</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>0.39930555555555558</v>
       </c>
@@ -1254,7 +1508,7 @@
         <v>0.64375000000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>0.40555555555555556</v>
       </c>
@@ -1268,7 +1522,7 @@
         <v>0.65763888888888899</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>0.41180555555555554</v>
       </c>
@@ -1282,7 +1536,7 @@
         <v>0.67152777777777795</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>0.42152777777777778</v>
       </c>
@@ -1296,7 +1550,7 @@
         <v>0.68541666666666701</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>0.43541666666666667</v>
       </c>
@@ -1310,7 +1564,7 @@
         <v>0.69930555555555496</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>0.44930555555555557</v>
       </c>
@@ -1324,7 +1578,7 @@
         <v>0.71319444444444402</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>0.46319444444444446</v>
       </c>
@@ -1338,7 +1592,7 @@
         <v>0.72708333333333297</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>0.47708333333333336</v>
       </c>
@@ -1352,7 +1606,7 @@
         <v>0.74097222222222203</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>0.4909722222222222</v>
       </c>
@@ -1366,7 +1620,7 @@
         <v>0.75486111111111098</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>0.50486111111111109</v>
       </c>
@@ -1380,7 +1634,7 @@
         <v>0.76875000000000004</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>0.51875000000000004</v>
       </c>
@@ -1394,7 +1648,7 @@
         <v>0.78263888888888899</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>0.53263888888888888</v>
       </c>
@@ -1408,7 +1662,7 @@
         <v>0.79652777777777706</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>0.54652777777777772</v>
       </c>
@@ -1422,7 +1676,7 @@
         <v>0.81319444444444444</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>0.56041666666666667</v>
       </c>
@@ -1436,7 +1690,7 @@
         <v>0.82430555555555562</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>0.57430555555555551</v>
       </c>
@@ -1450,7 +1704,7 @@
         <v>0.83819444444444446</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>0.58819444444444446</v>
       </c>
@@ -1464,7 +1718,7 @@
         <v>0.85902777777777772</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>0.6020833333333333</v>
       </c>
@@ -1478,7 +1732,7 @@
         <v>0.87986111111111098</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>0.61597222222222225</v>
       </c>
@@ -1492,7 +1746,7 @@
         <v>0.90069444444444402</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>0.62986111111111109</v>
       </c>
@@ -1506,7 +1760,7 @@
         <v>0.92152777777777795</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>0.64305555555555549</v>
       </c>
@@ -1520,7 +1774,7 @@
         <v>0.94236111111111098</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>0.65694444444444444</v>
       </c>
@@ -1534,7 +1788,7 @@
         <v>0.96319444444444402</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>0.67083333333333339</v>
       </c>
@@ -1548,7 +1802,7 @@
         <v>0.98402777777777795</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>0.68472222222222223</v>
       </c>
@@ -1559,7 +1813,7 @@
         <v>0.98611111111111094</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>0.69861111111111107</v>
       </c>
@@ -1570,7 +1824,7 @@
         <v>1.006944444444444</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>0.71180555555555558</v>
       </c>
@@ -1581,7 +1835,7 @@
         <v>1.0277777777777781</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>0.72361111111111109</v>
       </c>
@@ -1589,7 +1843,7 @@
         <v>0.69861111111111107</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>0.73541666666666661</v>
       </c>
@@ -1597,7 +1851,7 @@
         <v>0.70694444444444438</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>0.74930555555555556</v>
       </c>
@@ -1605,7 +1859,7 @@
         <v>0.71250000000000002</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>0.76319444444444451</v>
       </c>
@@ -1613,7 +1867,7 @@
         <v>0.71805555555555556</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>0.77430555555555558</v>
       </c>
@@ -1621,7 +1875,7 @@
         <v>0.72638888888888886</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>0.77916666666666667</v>
       </c>
@@ -1629,7 +1883,7 @@
         <v>0.73402777777777772</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>0.78680555555555554</v>
       </c>
@@ -1637,7 +1891,7 @@
         <v>0.74027777777777781</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>0.79305555555555562</v>
       </c>
@@ -1645,7 +1899,7 @@
         <v>0.74583333333333335</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>0.80069444444444438</v>
       </c>
@@ -1653,7 +1907,7 @@
         <v>0.75277777777777777</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>0.81111111111111112</v>
       </c>
@@ -1661,7 +1915,7 @@
         <v>0.75902777777777786</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>0.82361111111111107</v>
       </c>
@@ -1669,7 +1923,7 @@
         <v>0.76666666666666661</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>0.83750000000000002</v>
       </c>
@@ -1677,7 +1931,7 @@
         <v>0.78125</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>0.85138888888888886</v>
       </c>
@@ -1685,7 +1939,7 @@
         <v>0.79236111111111107</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>0.86527777777777781</v>
       </c>
@@ -1693,7 +1947,7 @@
         <v>0.80486111111111114</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>0.88194444444444442</v>
       </c>
@@ -1701,7 +1955,7 @@
         <v>0.81805555555555554</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>0.89722222222222214</v>
       </c>
@@ -1709,7 +1963,7 @@
         <v>0.83194444444444438</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>0.90763888888888888</v>
       </c>
@@ -1717,7 +1971,7 @@
         <v>0.84166666666666667</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>0.92361111111111116</v>
       </c>
@@ -1725,7 +1979,7 @@
         <v>0.85902777777777772</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>0.94444444444444442</v>
       </c>
@@ -1733,7 +1987,7 @@
         <v>0.87986111111111109</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>0.96527777777777779</v>
       </c>
@@ -1741,7 +1995,7 @@
         <v>0.90069444444444402</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>0.98611111111111116</v>
       </c>
@@ -1749,7 +2003,7 @@
         <v>0.92152777777777795</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>1.0069444444444444</v>
       </c>
@@ -1757,7 +2011,7 @@
         <v>0.94236111111111098</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>1.0277777777777777</v>
       </c>
@@ -1765,7 +2019,7 @@
         <v>0.96319444444444502</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B75" s="1">
         <v>0.98402777777777795</v>
       </c>
